--- a/biology/Zoologie/Flaviemys_purvisi/Flaviemys_purvisi.xlsx
+++ b/biology/Zoologie/Flaviemys_purvisi/Flaviemys_purvisi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Flaviemys purvisi, unique représentant du genre Flaviemys, est une espèce de tortue de la famille des Chelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flaviemys purvisi, unique représentant du genre Flaviemys, est une espèce de tortue de la famille des Chelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre dans le bassin de la Manning River.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre dans le bassin de la Manning River.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Flaviemys vient du latin flavus, jaune, et de emys, la tortue, en référence au motif jaune présent sur le plastron des espèces de ce genre[2]. L'espèce est nommée en l'honneur de Malcolm Purvis[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Flaviemys vient du latin flavus, jaune, et de emys, la tortue, en référence au motif jaune présent sur le plastron des espèces de ce genre. L'espèce est nommée en l'honneur de Malcolm Purvis.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le, Reid, McCord, Naro-Maciel, Raxworthy, Amato &amp; Georges, 2013 : Resolving the phylogenetic history of the short-necked turtles, genera Elseya and Myuchelys (Testudines: Chelidae) from Australia and New Guinea. Molecular Phylogenetics and Evolution, vol. 68, no 2, p. 251-258.
 Wells &amp; Wellington, 1985 : A classification of the Amphibia and Reptilia of Australia. Australian Journal of Herpetology, Supplemental Series, vol. 1, p. 1-61 (texte intégral).</t>
